--- a/docs/SSC_events.xlsx
+++ b/docs/SSC_events.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -67,10 +67,10 @@
     <t xml:space="preserve">50 nT</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.6 x 10^-2 A/m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2 x 10^-2 A/m</t>
+    <t xml:space="preserve">2.4 x 10^-2 A/m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0 x 10^-2 A/m</t>
   </si>
   <si>
     <t xml:space="preserve">590 km/s</t>
@@ -94,7 +94,10 @@
     <t xml:space="preserve">22 nT</t>
   </si>
   <si>
-    <t xml:space="preserve">-9.5 x 10^-3 A/m</t>
+    <t xml:space="preserve">1.8 x 10^-2 A/m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0 x 10^-2 A/m</t>
   </si>
   <si>
     <t xml:space="preserve">900 km/s</t>
@@ -109,10 +112,10 @@
     <t xml:space="preserve">15 nT</t>
   </si>
   <si>
-    <t xml:space="preserve">-8 x 10^-4 A/m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.1 x 10^-2 A/m</t>
+    <t xml:space="preserve">-4.0 x 10^-3 A/m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0 x 10^-3 A/m</t>
   </si>
   <si>
     <t xml:space="preserve">570 km/s</t>
@@ -139,28 +142,31 @@
     <t xml:space="preserve">40 nT</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3 x 10^-2 A/m</t>
+    <t xml:space="preserve">8.0 x 10^-3 A/m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4.8 x 10^-3 A/m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">720 km/s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 nT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ideal event</t>
+  </si>
+  <si>
+    <t xml:space="preserve">135 nT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n/a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1 x 10^-1 A/m</t>
   </si>
   <si>
     <t xml:space="preserve">0 A/m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">720 km/s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 nT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ideal event</t>
-  </si>
-  <si>
-    <t xml:space="preserve">135 nT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n/a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1 x 10^-1 A/m</t>
   </si>
   <si>
     <t xml:space="preserve">2700 km/s</t>
@@ -277,11 +283,11 @@
   </sheetPr>
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.71"/>
@@ -387,13 +393,13 @@
         <v>24</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J3" s="0" t="s">
         <v>21</v>
@@ -402,7 +408,7 @@
         <v>20</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -419,28 +425,28 @@
         <v>20</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -451,60 +457,60 @@
         <v>0.24375</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>20</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K5" s="0" t="s">
         <v>20</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>0</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/docs/SSC_events.xlsx
+++ b/docs/SSC_events.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -56,6 +56,15 @@
   </si>
   <si>
     <t xml:space="preserve">Bz,final (nT)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t,P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t,SYM-H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t,CS</t>
   </si>
   <si>
     <t xml:space="preserve">13 nT</t>
@@ -131,10 +140,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
     <numFmt numFmtId="166" formatCode="h:mm"/>
+    <numFmt numFmtId="167" formatCode="hh:mm"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -202,7 +212,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -216,6 +226,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -236,10 +250,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M7" activeCellId="0" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -254,6 +268,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="10.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="8.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="9.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="7.06"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -293,6 +310,15 @@
       <c r="L1" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
@@ -302,19 +328,19 @@
         <v>0.697916666666667</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>590</v>
@@ -330,6 +356,15 @@
       </c>
       <c r="L2" s="0" t="n">
         <v>-14</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>0.697916666666667</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>0.694444444444444</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>0.697916666666667</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -340,19 +375,19 @@
         <v>0.243055555555556</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>14</v>
-      </c>
       <c r="F3" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>900</v>
@@ -368,6 +403,15 @@
       </c>
       <c r="L3" s="0" t="n">
         <v>-17</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>0.245138888888889</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>0.245138888888889</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>0.246527777777778</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -378,19 +422,19 @@
         <v>0.24375</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>720</v>
@@ -406,6 +450,15 @@
       </c>
       <c r="L4" s="0" t="n">
         <v>-5</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>0.245833333333333</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0.243055555555556</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>0.247222222222222</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -416,19 +469,19 @@
         <v>0.0868055555555556</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>570</v>
@@ -444,29 +497,38 @@
       </c>
       <c r="L5" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>0.0923611111111111</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.0868055555555556</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>0.0923611111111111</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>0</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>2700</v>
